--- a/biology/Médecine/Virus_inactivé/Virus_inactivé.xlsx
+++ b/biology/Médecine/Virus_inactivé/Virus_inactivé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Virus_inactiv%C3%A9</t>
+          <t>Virus_inactivé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un virus inactivé désigne un virus qui a été rendu inopérant par un traitement physique (chauffage, irradiation) et/ou chimique (généralement au formaldéhyde ou à la β-propiolactone). L'inactivation d'un virus est utilisée pour la production d'épitopes utilisés dans l'élaboration de certains types de vaccins. 
 Cette méthode a l'avantage d'être totalement inoffensive contrairement à d'autres techniques comme l'utilisation de virus atténués. Cependant, cette technique de vaccination peut être moins efficace et nécessiter l'addition d'adjuvants, ou des rappels plus fréquents.
